--- a/1Семак/Информатика/ПР2/вариант12.xlsx
+++ b/1Семак/Информатика/ПР2/вариант12.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrlol\OneDrive\Рабочий стол\Чикчикпуки\ВУЗ\Информатика\ПР2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrlol\Desktop\Чикчикпуки\ВУЗ\1Семак\Информатика\ПР2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF5E729-928C-4757-B9B9-F2BDB8F95542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7029F33-1148-4E33-A6BA-F1F2FD82394F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="630" yWindow="1590" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Вариант 12" sheetId="1" r:id="rId1"/>
@@ -2975,9 +2975,18 @@
             <c:strRef>
               <c:f>'Вариант 12'!$C$2:$C$5</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>ООО "Прима"</c:v>
+                  <c:v>16,9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32,1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1,2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6,4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3046,36 +3055,43 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Вариант 12'!$D$2:$D$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1998г.,млн руб.</c:v>
+                  <c:v>1.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1999г., млн руб.</c:v>
+                  <c:v>8.7000000000000028</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Превышение, млн. руб.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.0999999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Вариант 12'!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.899999999999999</c:v>
+                  <c:v>23.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3999999999999986</c:v>
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3593,6 +3609,11 @@
       <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -10513,7 +10534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView zoomScale="128" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -11981,7 +12002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73840691-00BE-4AB1-9122-8E80AE1E61CA}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
+    <sheetView zoomScale="98" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
